--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.945</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.778</v>
+        <v>-21.66</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.028</v>
+        <v>-19.953</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-19.94</v>
+        <v>-20.203</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.632</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.4</v>
+        <v>-21.692</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.344</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.932</v>
+        <v>-21.915</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.219</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.07</v>
+        <v>-22.461</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.652</v>
+        <v>-21.519</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.488</v>
+        <v>-21.087</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-21.984</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.722</v>
+        <v>-20.666</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.456</v>
+        <v>-21.508</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.124</v>
+        <v>-22.086</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
